--- a/INDIVIDUAL_ARGUMENTS/singapore_one.xlsx
+++ b/INDIVIDUAL_ARGUMENTS/singapore_one.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="173" firstSheet="0" activeTab="0"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-  </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
   <si>
     <t>#id</t>
   </si>
@@ -29,202 +28,304 @@
     <t>Farquhar won the affection and respect from the people with his doings. When he was sacked, thousands of people bade him farewell on the day he left Singapore. This proves that Farquhar is very important to the people.</t>
   </si>
   <si>
+    <t>218,0.0,14.98,0.0,0.05,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.13,0.13</t>
+  </si>
+  <si>
     <t>arg168808</t>
   </si>
   <si>
     <t>Crimes like robbing and fighting often occurred. Farquhar set up a small police force.</t>
   </si>
   <si>
+    <t>86,0.0,15.25,0.0,0.07,1.0,0.0,0.0,0.29,0.0,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg168776</t>
   </si>
   <si>
     <t>Farquar protected Singapore from Dutch attacks and attracted traders to Singapore while Raffles was away.</t>
   </si>
   <si>
+    <t>105,0.0,22.99,0.0,0.07,1.0,0.0,0.0,0.88,0.05,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg168806</t>
   </si>
   <si>
     <t>There were a lot of pests at that time, and the people were suffering from them. Raffles wasn't around, and William had to think of a solution himself.</t>
   </si>
   <si>
+    <t>151,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.29,0.2,0.25,0.25,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg168767</t>
   </si>
   <si>
     <t>Farquhar was the one to take charge of the new settlement and keep it running against all odds after British presence was introduced, as Raffles had to return to Bencoolen.</t>
   </si>
   <si>
+    <t>172,0.0,16.53,0.0,0.07,1.0,0.0,0.0,0.88,0.1,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg168768</t>
   </si>
   <si>
     <t>It is clear that Stamford Raffles was the basis for the idea but the implementation was left to Farquhar so i believe he is the rightful founder of Singapore. Raffles was just the 'idea man' before the founding but was summoned to Bencoolen by his superiors and did not have much contribution to the founding of Singapore.</t>
   </si>
   <si>
+    <t>322,1.0,16.01,0.0,0.07,1.0,0.0,0.0,1.46,0.15,0.3,0.35,0.13,0.13</t>
+  </si>
+  <si>
     <t>arg167722</t>
   </si>
   <si>
     <t>Farquhar did all the ground work to improve Singapore but Raffles only dreamt about what to do.</t>
   </si>
   <si>
+    <t>95,1.0,14.97,0.0,0.06,1.0,0.0,0.0,0.58,0.15,0.15,0.15,0.06,0.13</t>
+  </si>
+  <si>
     <t>arg168780</t>
   </si>
   <si>
     <t>Faruhar carried out the 'grand plan' of Raffles'. Raffles practically just sat there and watched it all go, not even lifting a finger to help. It doesn't matter if Raffles was the head of the so-called operation, Farquhar was the one to DEVELOP Singapore to what it is today.</t>
   </si>
   <si>
+    <t>275,0.0,13.34,0.0,0.12,1.0,0.0,0.02,1.17,0.1,0.15,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg168774</t>
   </si>
   <si>
     <t>Farquhar was the one to implement the actual operations, whereas Raffles only came up with the ideas, which would or would not work. Actions require action, and Farquhar implemented those ideas.</t>
   </si>
   <si>
+    <t>194,0.0,18.14,0.0,0.06,1.0,0.0,0.0,0.58,0.15,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg168830</t>
   </si>
   <si>
     <t>Raffles came and left Singapore, returning after a long period of time. Farquar stayed here all the time, and solved many problems. Raffles did not do much at all compared to Farquar.</t>
   </si>
   <si>
+    <t>183,0.0,14.13,0.0,0.06,1.0,0.0,0.0,0.88,0.2,0.35,0.35,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg168793</t>
   </si>
   <si>
     <t>Even though William had legalized gambling, he did it so that Singapore can prosper, but Raffles had turned it down, leaving Singapore alone.</t>
   </si>
   <si>
+    <t>141,2.0,17.94,0.0,0.0,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg168766</t>
   </si>
   <si>
     <t>William Farquhar was sacked. Despite his many positive achievements in the formative period of Singapore's development, he adopted measures in his administration which conflicted with Raffles' instructions, so a lot of people would just ignore Farquhar's contribution and credit them to Raffles</t>
   </si>
   <si>
+    <t>294,0.0,22.83,0.0,0.07,0.5,0.0,0.0,1.17,0.3,0.25,0.3,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg168804</t>
   </si>
   <si>
     <t>Faquhar solved the problems in Singapore using cash from his own pocket. When Singapore was once infested with rats and centipedes, Farquhar rewarded the people with coins for every pest they catch. This solved the problem quickly, as he held to his promise.</t>
   </si>
   <si>
+    <t>258,0.0,16.73,0.0,0.05,1.0,0.0,0.0,0.88,0.2,0.35,0.35,0.13,0.25</t>
+  </si>
+  <si>
     <t>arg168792</t>
   </si>
   <si>
     <t>Farquar dealt with every day problems during the early years of Singapore.He also attempted to know the people and understood malay, whereas Raffles hardly communicated with the people.</t>
   </si>
   <si>
+    <t>185,1.0,20.12,0.0,0.07,2.0,0.0,0.0,0.29,0.25,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg168786</t>
   </si>
   <si>
     <t>When Farquar was fired by Raffles, he was given a grander ceremony before he left compared to Raffles, which show how much the people loved him.</t>
   </si>
   <si>
+    <t>144,0.0,14.95,0.0,0.04,1.0,0.0,0.0,0.58,0.1,0.25,0.25,0.06,0.13</t>
+  </si>
+  <si>
     <t>arg168818</t>
   </si>
   <si>
     <t>To me, a founder would be a leader, well respected by the organisation/group he is managing. Both Raffles and Farquhar were good leaders. However, when William Farquhar was sent off to Britain, more people went to send him off than the combined number of people that sent Raffles off during the three times Raffles left Singapore. This shows that the people of Singapore respected Farquhar more than Raffles, and to them, Farquhar was a more competent leader.</t>
   </si>
   <si>
+    <t>459,0.25,15.91,0.0,0.06,1.0,0.0,0.0,1.46,0.2,0.45,0.45,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg168805</t>
   </si>
   <si>
     <t>Farquar weeded out many problems, such as the rat and centipede infestation. It took only a few days for Farquar to finish destroying the infestation, whereas Raffles did not do anything about the problem at all.</t>
   </si>
   <si>
+    <t>212,0.0,16.53,0.0,0.06,1.0,0.0,0.0,0.58,0.1,0.2,0.2,0.13,0.25</t>
+  </si>
+  <si>
     <t>arg168777</t>
   </si>
   <si>
     <t>He invited the immigrants from Malacca to come and trade and stationed an office at St. John's Island to inform the trading ships passing by about the settlement in Singapore.</t>
   </si>
   <si>
+    <t>175,0.0,17.24,0.0,0.03,2.0,0.0,0.0,0.88,0.1,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg168832</t>
   </si>
   <si>
     <t>The people recognized William Farquhar as the founder because he was there to deal with the country's problems when Raffles failed to be there for them. William Farquhar even took money out of his own pockets to resolve certain issues. When he was forced to leave, the people sent him off with sorrow in their hearts.</t>
   </si>
   <si>
+    <t>317,0.33,15.27,0.0,0.04,1.0,0.0,0.0,0.58,0.3,0.35,0.35,0.06,0.0</t>
+  </si>
+  <si>
     <t>arg168831</t>
   </si>
   <si>
     <t>Even though Raffles did all the so-called planning, Farquhar did make some plans of his own, too, since Raffles had to leave for Bencoolen. This means that Farquhar had to plan on his own, too.</t>
   </si>
   <si>
+    <t>193,0.5,13.07,0.0,0.11,1.0,0.0,0.0,0.88,0.1,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg168801</t>
   </si>
   <si>
     <t>Farquhar contributed significantly, even forking out his own money to start up the colony carved out of the jungle, by first offering money as an incentive for people to hunt and to exterminate rats and centipedes. Raffles did nothing of that sort.</t>
   </si>
   <si>
+    <t>248,0.5,16.95,0.0,0.02,1.0,0.0,0.0,0.58,0.25,0.25,0.25,0.19,0.25</t>
+  </si>
+  <si>
     <t>arg168779</t>
   </si>
   <si>
     <t>Farquhar was unjustly exiled by Raffles even though William had done a lot to help Singapore.</t>
   </si>
   <si>
+    <t>93,1.0,16.16,0.0,0.06,1.0,0.0,0.0,0.88,0.1,0.2,0.2,0.13,0.13</t>
+  </si>
+  <si>
     <t>arg168834</t>
   </si>
   <si>
     <t>Raffles doesn't care about the citizens, doesn't spare a thought at all.  So what if he discovered the island majulah singapura, he did not help in the least in singapore's development. so why in the world should he deserve the title of 'singapore's founder'?  Farquhar developed the island, with all his ideas contributing to the development.</t>
   </si>
   <si>
+    <t>343,0.0,15.4,0.0,0.09,1.0,0.0,0.0,0.58,0.2,0.3,0.3,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg168764</t>
   </si>
   <si>
     <t>Farquhar was the one that played the role of a 'mother' to Singapore.He contributed more to Singapore than Raffles supporting the fact that he was the founder of Singapore.</t>
   </si>
   <si>
+    <t>172,0.0,15.55,0.0,0.1,2.0,0.0,0.0,0.88,0.15,0.25,0.25,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg168811</t>
   </si>
   <si>
     <t>William Farquhar was removed from his position by Raffles because Farquhar had grown too close to the people. However, knowing the people well is necessary to help Farquhar solve the problems faced by the people.</t>
   </si>
   <si>
+    <t>212,1.0,17.62,0.0,0.09,1.0,0.0,0.0,0.88,0.25,0.3,0.3,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg168822</t>
   </si>
   <si>
     <t>Raffles neglected Singapore when he went around conquering other 'more useful' countries for about FOUR years, leaving all the work to Farquhar to settle. Plus, to drive my point further, the countries that were run by Raffles all ended up BADLY. This shows that Raffles was a bad developer of the country.</t>
   </si>
   <si>
+    <t>306,0.33,16.24,0.0,0.06,1.0,0.0,0.04,0.58,0.2,0.3,0.35,0.13,0.0</t>
+  </si>
+  <si>
     <t>arg168812</t>
   </si>
   <si>
     <t>Without William Farquhar Singapore would have perished. Only because William was there to govern the country, Singapore continued to exist. Raffles left to govern another country.</t>
   </si>
   <si>
+    <t>179,0.33,20.36,0.0,0.04,1.0,0.0,0.0,0.58,0.25,0.3,0.3,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg168807</t>
   </si>
   <si>
     <t>William Farquhar had helped more citizen of Singapore than Raffles did. Raffles was just more of the idea man. William Farquhar was more of a founder of Singapore than Raffles.</t>
   </si>
   <si>
+    <t>176,0.0,15.15,0.0,0.07,1.0,0.0,0.0,0.88,0.25,0.3,0.3,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg168791</t>
   </si>
   <si>
     <t>There were pests like centipedes and rats all over the island. These pests hurt some people. The rats also destroyed the food supplies. Tigers were also a threat to the people here. He solved it by giving rewards were given to those people who killed these pests.</t>
   </si>
   <si>
+    <t>263,0.4,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.06,0.13</t>
+  </si>
+  <si>
     <t>arg168773</t>
   </si>
   <si>
     <t>William Farquhar stayed in Singapore longer than Raffles, so Farquhar had more time to get to know the people more, to earn the trust of the people, to find out the problems that the people were facing and to solve those problems</t>
   </si>
   <si>
+    <t>229,0.0,15.13,0.0,0.05,0.0,0.0,0.0,1.17,0.3,0.4,0.4,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg168783</t>
   </si>
   <si>
     <t>Farquhar ordered his men to go to Malacca and bring some food back. The traders in Singapore also brought some of the necessities here.</t>
   </si>
   <si>
+    <t>135,0.5,14.32,0.0,0.08,1.0,0.0,0.0,0.88,0.05,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg168825</t>
   </si>
   <si>
     <t>When Farquhar left Singapore, more people were there to send him off than Raffles. This shows that the people recognized Farquhar as their founder, not Raffles</t>
   </si>
   <si>
+    <t>159,0.0,17.2,0.0,0.08,0.5,0.0,0.0,0.58,0.2,0.35,0.35,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg168770</t>
   </si>
   <si>
     <t>Raffles unjustly removed Farquhar from his position in Singapore and accused him of ' being too close to the local population '. I think that it is unfair that a person who contributed so much to Singapore's development be unjustly sent off like that.</t>
   </si>
   <si>
+    <t>251,0.0,16.81,0.0,0.07,1.0,0.0,0.02,0.58,0.1,0.25,0.25,0.13,0.13</t>
+  </si>
+  <si>
     <t>arg168820</t>
   </si>
   <si>
     <t>William made the initiative to understand the locals and to communicate with them. He even learnt Malay just so to make conversation easier.</t>
+  </si>
+  <si>
+    <t>140,0.0,16.91,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
   </si>
 </sst>
 </file>
@@ -232,40 +333,44 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
   <fonts count="4">
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -273,353 +378,724 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="6">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="1"/>
+    <cellStyle builtinId="5" name="Percent" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="3" name="Comma" xfId="4"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="B24 B1"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B1" activeCellId="1" pane="topLeft" sqref="B24 B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.90816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.5204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col customWidth="1" max="1" min="1" style="1" width="9.90816326530612"/>
+    <col customWidth="1" max="2" min="2" style="1" width="41.5204081632653"/>
+    <col customWidth="1" max="1025" min="3" style="1" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row customHeight="1" s="1" r="1" ht="12.8" spans="1:3">
+      <c s="0" r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c s="0" r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row customHeight="1" s="1" r="2" ht="12.8" spans="1:3">
+      <c s="0" r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c s="0" r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="3" ht="12.8" spans="1:3">
+      <c s="0" r="A3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c s="0" r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row customHeight="1" s="1" r="4" ht="12.8" spans="1:3">
+      <c s="0" r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c s="0" r="B4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="5" ht="12.8" spans="1:3">
+      <c s="0" r="A5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c s="0" r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row customHeight="1" s="1" r="6" ht="12.8" spans="1:3">
+      <c s="0" r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c s="0" r="B6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="7" ht="12.8" spans="1:3">
+      <c s="0" r="A7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c s="0" r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row customHeight="1" s="1" r="8" ht="12.8" spans="1:3">
+      <c s="0" r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c s="0" r="B8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="9" ht="12.8" spans="1:3">
+      <c s="0" r="A9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c s="0" r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="C9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row customHeight="1" s="1" r="10" ht="12.8" spans="1:3">
+      <c s="0" r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c s="0" r="B10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="11" ht="12.8" spans="1:3">
+      <c s="0" r="A11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c s="0" r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="C11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row customHeight="1" s="1" r="12" ht="12.8" spans="1:3">
+      <c s="0" r="A12" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c s="0" r="B12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="C12" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="13" ht="12.8" spans="1:3">
+      <c s="0" r="A13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c s="0" r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="C13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row customHeight="1" s="1" r="14" ht="12.8" spans="1:3">
+      <c s="0" r="A14" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c s="0" r="B14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="C14" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="15" ht="12.8" spans="1:3">
+      <c s="0" r="A15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c s="0" r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="C15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row customHeight="1" s="1" r="16" ht="12.8" spans="1:3">
+      <c s="0" r="A16" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c s="0" r="B16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="C16" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="17" ht="12.8" spans="1:3">
+      <c s="0" r="A17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c s="0" r="B17" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="C17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row customHeight="1" s="1" r="18" ht="12.8" spans="1:3">
+      <c s="0" r="A18" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c s="0" r="B18" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="C18" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="19" ht="12.8" spans="1:3">
+      <c s="0" r="A19" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c s="0" r="B19" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="C19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row customHeight="1" s="1" r="20" ht="12.8" spans="1:3">
+      <c s="0" r="A20" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c s="0" r="B20" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="C20" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="21" ht="12.8" spans="1:3">
+      <c s="0" r="A21" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c s="0" r="B21" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="C21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row customHeight="1" s="1" r="22" ht="12.8" spans="1:3">
+      <c s="0" r="A22" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c s="0" r="B22" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="C22" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="23" ht="12.8" spans="1:3">
+      <c s="0" r="A23" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c s="0" r="B23" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="C23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row customHeight="1" s="1" r="24" ht="12.8" spans="1:3">
+      <c s="0" r="A24" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c s="0" r="B24" t="s">
         <v>69</v>
       </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="25" ht="12.8" spans="1:3">
+      <c s="0" r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c s="0" r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="26" ht="12.8" spans="1:3">
+      <c s="0" r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c s="0" r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="27" ht="12.8" spans="1:3">
+      <c s="0" r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c s="0" r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="28" ht="12.8" spans="1:3">
+      <c s="0" r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c s="0" r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="29" ht="12.8" spans="1:3">
+      <c s="0" r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c s="0" r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="30" ht="12.8" spans="1:3">
+      <c s="0" r="A30" t="s">
+        <v>86</v>
+      </c>
+      <c s="0" r="B30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="31" ht="12.8" spans="1:3">
+      <c s="0" r="A31" t="s">
+        <v>89</v>
+      </c>
+      <c s="0" r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="32" ht="12.8" spans="1:3">
+      <c s="0" r="A32" t="s">
+        <v>92</v>
+      </c>
+      <c s="0" r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="33" ht="12.8" spans="1:3">
+      <c s="0" r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c s="0" r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="34" ht="12.8" spans="1:3">
+      <c s="0" r="A34" t="s">
+        <v>98</v>
+      </c>
+      <c s="0" r="B34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="35" ht="12.8" spans="1:3">
+      <c s="0" r="A35" t="s">
+        <v>101</v>
+      </c>
+      <c s="0" r="B35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" t="s">
+        <v>103</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" usePrinterDefaults="0" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INDIVIDUAL_ARGUMENTS/singapore_one.xlsx
+++ b/INDIVIDUAL_ARGUMENTS/singapore_one.xlsx
@@ -28,7 +28,7 @@
     <t>Farquhar won the affection and respect from the people with his doings. When he was sacked, thousands of people bade him farewell on the day he left Singapore. This proves that Farquhar is very important to the people.</t>
   </si>
   <si>
-    <t>218,0.0,14.98,0.0,0.05,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.13,0.13</t>
+    <t>12.67,5.74,1.07,1.46,0.73,0.0,14.98,0.0,0.05,1.0,0,0,0.0,0.0,0.58,0.26,0.05,0.18,0.03,0.03,0.11,0.0,0.0,0.13,0.13,3.27</t>
   </si>
   <si>
     <t>arg168808</t>
@@ -37,7 +37,7 @@
     <t>Crimes like robbing and fighting often occurred. Farquhar set up a small police force.</t>
   </si>
   <si>
-    <t>86,0.0,15.25,0.0,0.07,1.0,0.0,0.0,0.29,0.0,0.05,0.05,0.0,0.0</t>
+    <t>7.0,6.14,0.39,0.97,0.4,0.0,15.25,0.0,0.07,1.0,0,0,0.0,0.0,0.29,0.36,0.14,0.21,0.07,0.07,0.0,0.0,0.0,0.0,0.0,1.0</t>
   </si>
   <si>
     <t>arg168776</t>
@@ -46,7 +46,7 @@
     <t>Farquar protected Singapore from Dutch attacks and attracted traders to Singapore while Raffles was away.</t>
   </si>
   <si>
-    <t>105,0.0,22.99,0.0,0.07,1.0,0.0,0.0,0.88,0.05,0.15,0.15,0.0,0.0</t>
+    <t>15.0,7.0,0.42,0.49,0.87,0.0,22.99,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.27,0.07,0.2,0.0,0.0,0.0,0.0,0.0,0.0,0.0,5.63</t>
   </si>
   <si>
     <t>arg168806</t>
@@ -55,7 +55,7 @@
     <t>There were a lot of pests at that time, and the people were suffering from them. Raffles wasn't around, and William had to think of a solution himself.</t>
   </si>
   <si>
-    <t>151,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.29,0.2,0.25,0.25,0.0,0.0</t>
+    <t>14.0,5.39,0.79,0.97,0.81,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,0.29,0.21,0.04,0.18,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.13</t>
   </si>
   <si>
     <t>arg168767</t>
@@ -64,7 +64,7 @@
     <t>Farquhar was the one to take charge of the new settlement and keep it running against all odds after British presence was introduced, as Raffles had to return to Bencoolen.</t>
   </si>
   <si>
-    <t>172,0.0,16.53,0.0,0.07,1.0,0.0,0.0,0.88,0.1,0.1,0.1,0.0,0.0</t>
+    <t>30.0,5.73,0.84,0.49,1.73,0.0,16.53,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.17,0.1,0.23,0.0,0.0,0.03,0.07,0.0,0.0,0.0,4.55</t>
   </si>
   <si>
     <t>arg168768</t>
@@ -73,7 +73,7 @@
     <t>It is clear that Stamford Raffles was the basis for the idea but the implementation was left to Farquhar so i believe he is the rightful founder of Singapore. Raffles was just the 'idea man' before the founding but was summoned to Bencoolen by his superiors and did not have much contribution to the founding of Singapore.</t>
   </si>
   <si>
-    <t>322,1.0,16.01,0.0,0.07,1.0,0.0,0.0,1.46,0.15,0.3,0.35,0.13,0.13</t>
+    <t>28.5,5.65,1.6,0.97,1.65,1.0,16.01,0.0,0.07,1.0,0,0,0.0,0.0,1.46,0.16,0.07,0.19,0.07,0.07,0.05,0.04,0.1,0.13,0.13,4.47</t>
   </si>
   <si>
     <t>arg167722</t>
@@ -82,7 +82,7 @@
     <t>Farquhar did all the ground work to improve Singapore but Raffles only dreamt about what to do.</t>
   </si>
   <si>
-    <t>95,1.0,14.97,0.0,0.06,1.0,0.0,0.0,0.58,0.15,0.15,0.15,0.06,0.13</t>
+    <t>17.0,5.59,0.48,0.49,0.98,1.0,14.97,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.29,0.0,0.24,0.06,0.06,0.0,0.0,0.0,0.13,0.13,6.57</t>
   </si>
   <si>
     <t>arg168780</t>
@@ -91,7 +91,7 @@
     <t>Faruhar carried out the 'grand plan' of Raffles'. Raffles practically just sat there and watched it all go, not even lifting a finger to help. It doesn't matter if Raffles was the head of the so-called operation, Farquhar was the one to DEVELOP Singapore to what it is today.</t>
   </si>
   <si>
-    <t>275,0.0,13.34,0.0,0.12,1.0,0.0,0.02,1.17,0.1,0.15,0.2,0.0,0.0</t>
+    <t>16.33,5.61,1.38,1.46,0.94,0.0,13.34,0.0,0.12,1.0,0,0,0.0,0.02,1.17,0.16,0.06,0.2,0.1,0.1,0.06,0.02,0.1,0.0,0.0,3.31</t>
   </si>
   <si>
     <t>arg168774</t>
@@ -100,7 +100,7 @@
     <t>Farquhar was the one to implement the actual operations, whereas Raffles only came up with the ideas, which would or would not work. Actions require action, and Farquhar implemented those ideas.</t>
   </si>
   <si>
-    <t>194,0.0,18.14,0.0,0.06,1.0,0.0,0.0,0.58,0.15,0.15,0.15,0.0,0.0</t>
+    <t>15.5,6.26,0.87,0.97,0.9,0.0,18.14,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.26,0.03,0.19,0.06,0.06,0.0,0.06,0.0,0.0,0.0,6.22</t>
   </si>
   <si>
     <t>arg168830</t>
@@ -109,7 +109,7 @@
     <t>Raffles came and left Singapore, returning after a long period of time. Farquar stayed here all the time, and solved many problems. Raffles did not do much at all compared to Farquar.</t>
   </si>
   <si>
-    <t>183,0.0,14.13,0.0,0.06,1.0,0.0,0.0,0.88,0.2,0.35,0.35,0.0,0.0</t>
+    <t>10.67,5.72,0.9,1.46,0.62,0.0,14.13,0.0,0.06,1.0,0,0,0.0,0.0,0.88,0.22,0.09,0.25,0.13,0.13,0.0,0.0,0.0,0.0,0.0,6.42</t>
   </si>
   <si>
     <t>arg168793</t>
@@ -118,7 +118,7 @@
     <t>Even though William had legalized gambling, he did it so that Singapore can prosper, but Raffles had turned it down, leaving Singapore alone.</t>
   </si>
   <si>
-    <t>141,2.0,17.94,0.0,0.0,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.0,0.0</t>
+    <t>23.0,6.13,0.65,0.49,1.33,2.0,17.94,0.0,0.0,1.0,0,0,0.0,0.0,0.58,0.13,0.0,0.35,0.04,0.04,0.13,0.0,0.0,0.0,0.0,6.0</t>
   </si>
   <si>
     <t>arg168766</t>
@@ -127,7 +127,7 @@
     <t>William Farquhar was sacked. Despite his many positive achievements in the formative period of Singapore's development, he adopted measures in his administration which conflicted with Raffles' instructions, so a lot of people would just ignore Farquhar's contribution and credit them to Raffles</t>
   </si>
   <si>
-    <t>294,0.0,22.83,0.0,0.07,0.5,0.0,0.0,1.17,0.3,0.25,0.3,0.0,0.0</t>
+    <t>21.0,7.0,1.18,0.97,1.21,0.0,22.83,0.0,0.07,0.5,0,0,0.0,0.0,1.17,0.31,0.07,0.17,0.05,0.05,0.1,0.14,0.3,0.0,0.0,4.68</t>
   </si>
   <si>
     <t>arg168804</t>
@@ -136,7 +136,7 @@
     <t>Faquhar solved the problems in Singapore using cash from his own pocket. When Singapore was once infested with rats and centipedes, Farquhar rewarded the people with coins for every pest they catch. This solved the problem quickly, as he held to his promise.</t>
   </si>
   <si>
-    <t>258,0.0,16.73,0.0,0.05,1.0,0.0,0.0,0.88,0.2,0.35,0.35,0.13,0.25</t>
+    <t>14.33,6.0,1.21,1.46,0.83,0.0,16.73,0.0,0.05,1.0,0,0,0.0,0.0,0.88,0.28,0.02,0.19,0.02,0.02,0.09,0.02,0.0,0.25,0.25,3.72</t>
   </si>
   <si>
     <t>arg168792</t>
@@ -145,7 +145,7 @@
     <t>Farquar dealt with every day problems during the early years of Singapore.He also attempted to know the people and understood malay, whereas Raffles hardly communicated with the people.</t>
   </si>
   <si>
-    <t>185,1.0,20.12,0.0,0.07,2.0,0.0,0.0,0.29,0.25,0.2,0.2,0.0,0.0</t>
+    <t>28.0,6.61,0.79,0.49,1.62,1.0,20.12,0.0,0.07,2.0,0,0,0.0,0.0,0.29,0.25,0.07,0.11,0.07,0.07,0.0,0.07,0.2,0.0,0.0,6.69</t>
   </si>
   <si>
     <t>arg168786</t>
@@ -154,7 +154,7 @@
     <t>When Farquar was fired by Raffles, he was given a grander ceremony before he left compared to Raffles, which show how much the people loved him.</t>
   </si>
   <si>
-    <t>144,0.0,14.95,0.0,0.04,1.0,0.0,0.0,0.58,0.1,0.25,0.25,0.06,0.13</t>
+    <t>26.0,5.54,0.73,0.49,1.5,0.0,14.95,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.19,0.04,0.31,0.0,0.0,0.08,0.0,0.0,0.13,0.13,8.3</t>
   </si>
   <si>
     <t>arg168818</t>
@@ -163,7 +163,7 @@
     <t>To me, a founder would be a leader, well respected by the organisation/group he is managing. Both Raffles and Farquhar were good leaders. However, when William Farquhar was sent off to Britain, more people went to send him off than the combined number of people that sent Raffles off during the three times Raffles left Singapore. This shows that the people of Singapore respected Farquhar more than Raffles, and to them, Farquhar was a more competent leader.</t>
   </si>
   <si>
-    <t>459,0.25,15.91,0.0,0.06,1.0,0.0,0.0,1.46,0.2,0.45,0.45,0.0,0.0</t>
+    <t>19.25,5.96,2.16,1.94,1.11,0.25,15.91,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.18,0.09,0.19,0.03,0.03,0.03,0.0,0.0,0.0,0.0,5.42</t>
   </si>
   <si>
     <t>arg168805</t>
@@ -172,7 +172,7 @@
     <t>Farquar weeded out many problems, such as the rat and centipede infestation. It took only a few days for Farquar to finish destroying the infestation, whereas Raffles did not do anything about the problem at all.</t>
   </si>
   <si>
-    <t>212,0.0,16.53,0.0,0.06,1.0,0.0,0.0,0.58,0.1,0.2,0.2,0.13,0.25</t>
+    <t>18.0,5.89,1.01,0.97,1.04,0.0,16.53,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.19,0.08,0.17,0.06,0.06,0.03,0.06,0.0,0.25,0.25,6.8</t>
   </si>
   <si>
     <t>arg168777</t>
@@ -181,7 +181,7 @@
     <t>He invited the immigrants from Malacca to come and trade and stationed an office at St. John's Island to inform the trading ships passing by about the settlement in Singapore.</t>
   </si>
   <si>
-    <t>175,0.0,17.24,0.0,0.03,2.0,0.0,0.0,0.88,0.1,0.1,0.1,0.0,0.0</t>
+    <t>30.0,5.83,0.84,0.49,1.73,0.0,17.24,0.0,0.03,2.0,0,0,0.0,0.0,0.88,0.3,0.0,0.2,0.0,0.0,0.03,0.07,0.0,0.0,0.0,1.15</t>
   </si>
   <si>
     <t>arg168832</t>
@@ -190,7 +190,7 @@
     <t>The people recognized William Farquhar as the founder because he was there to deal with the country's problems when Raffles failed to be there for them. William Farquhar even took money out of his own pockets to resolve certain issues. When he was forced to leave, the people sent him off with sorrow in their hearts.</t>
   </si>
   <si>
-    <t>317,0.33,15.27,0.0,0.04,1.0,0.0,0.0,0.58,0.3,0.35,0.35,0.06,0.0</t>
+    <t>18.67,5.66,1.57,1.46,1.08,0.33,15.27,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.2,0.04,0.2,0.05,0.05,0.09,0.02,0.0,0.0,0.0,6.12</t>
   </si>
   <si>
     <t>arg168831</t>
@@ -199,7 +199,7 @@
     <t>Even though Raffles did all the so-called planning, Farquhar did make some plans of his own, too, since Raffles had to leave for Bencoolen. This means that Farquhar had to plan on his own, too.</t>
   </si>
   <si>
-    <t>193,0.5,13.07,0.0,0.11,1.0,0.0,0.0,0.88,0.1,0.15,0.15,0.0,0.0</t>
+    <t>17.5,5.51,0.98,0.97,1.01,0.5,13.07,0.0,0.11,1.0,0,0,0.0,0.0,0.88,0.17,0.03,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,6.86</t>
   </si>
   <si>
     <t>arg168801</t>
@@ -208,7 +208,7 @@
     <t>Farquhar contributed significantly, even forking out his own money to start up the colony carved out of the jungle, by first offering money as an incentive for people to hunt and to exterminate rats and centipedes. Raffles did nothing of that sort.</t>
   </si>
   <si>
-    <t>248,0.5,16.95,0.0,0.02,1.0,0.0,0.0,0.58,0.25,0.25,0.25,0.19,0.25</t>
+    <t>21.0,5.9,1.18,0.97,1.21,0.5,16.95,0.0,0.02,1.0,0,0,0.0,0.0,0.58,0.24,0.05,0.19,0.05,0.05,0.02,0.1,0.2,0.25,0.25,5.17</t>
   </si>
   <si>
     <t>arg168779</t>
@@ -217,7 +217,7 @@
     <t>Farquhar was unjustly exiled by Raffles even though William had done a lot to help Singapore.</t>
   </si>
   <si>
-    <t>93,1.0,16.16,0.0,0.06,1.0,0.0,0.0,0.88,0.1,0.2,0.2,0.13,0.13</t>
+    <t>16.0,5.81,0.45,0.49,0.93,1.0,16.16,0.0,0.06,1.0,0,0,0.0,0.0,0.88,0.19,0.0,0.31,0.13,0.13,0.0,0.0,0.0,0.13,0.13,6.71</t>
   </si>
   <si>
     <t>arg168834</t>
@@ -226,7 +226,7 @@
     <t>Raffles doesn't care about the citizens, doesn't spare a thought at all.  So what if he discovered the island majulah singapura, he did not help in the least in singapore's development. so why in the world should he deserve the title of 'singapore's founder'?  Farquhar developed the island, with all his ideas contributing to the development.</t>
   </si>
   <si>
-    <t>343,0.0,15.4,0.0,0.09,1.0,0.0,0.0,0.58,0.2,0.3,0.3,0.0,0.0</t>
+    <t>14.0,6.13,1.57,1.94,0.81,0.0,15.4,0.0,0.09,1.0,0,0,0.0,0.0,0.58,0.25,0.04,0.14,0.05,0.05,0.07,0.05,0.0,0.0,0.0,4.0</t>
   </si>
   <si>
     <t>arg168764</t>
@@ -235,7 +235,7 @@
     <t>Farquhar was the one that played the role of a 'mother' to Singapore.He contributed more to Singapore than Raffles supporting the fact that he was the founder of Singapore.</t>
   </si>
   <si>
-    <t>172,0.0,15.55,0.0,0.1,2.0,0.0,0.0,0.88,0.15,0.25,0.25,0.0,0.0</t>
+    <t>29.0,5.93,0.81,0.49,1.68,0.0,15.55,0.0,0.1,2.0,0,0,0.0,0.0,0.88,0.21,0.03,0.17,0.0,0.0,0.03,0.07,0.0,0.0,0.0,5.6</t>
   </si>
   <si>
     <t>arg168811</t>
@@ -244,7 +244,7 @@
     <t>William Farquhar was removed from his position by Raffles because Farquhar had grown too close to the people. However, knowing the people well is necessary to help Farquhar solve the problems faced by the people.</t>
   </si>
   <si>
-    <t>212,1.0,17.62,0.0,0.09,1.0,0.0,0.0,0.88,0.25,0.3,0.3,0.0,0.0</t>
+    <t>17.5,6.06,0.98,0.97,1.01,1.0,17.62,0.0,0.09,1.0,0,0,0.0,0.0,0.88,0.23,0.06,0.26,0.06,0.06,0.03,0.0,0.0,0.0,0.0,7.67</t>
   </si>
   <si>
     <t>arg168822</t>
@@ -253,7 +253,7 @@
     <t>Raffles neglected Singapore when he went around conquering other 'more useful' countries for about FOUR years, leaving all the work to Farquhar to settle. Plus, to drive my point further, the countries that were run by Raffles all ended up BADLY. This shows that Raffles was a bad developer of the country.</t>
   </si>
   <si>
-    <t>306,0.33,16.24,0.0,0.06,1.0,0.0,0.04,0.58,0.2,0.3,0.35,0.13,0.0</t>
+    <t>17.33,5.88,1.46,1.46,1.0,0.33,16.24,0.0,0.06,1.0,0,0,0.0,0.04,0.58,0.21,0.06,0.23,0.0,0.0,0.04,0.02,0.0,0.0,0.0,3.83</t>
   </si>
   <si>
     <t>arg168812</t>
@@ -262,7 +262,7 @@
     <t>Without William Farquhar Singapore would have perished. Only because William was there to govern the country, Singapore continued to exist. Raffles left to govern another country.</t>
   </si>
   <si>
-    <t>179,0.33,20.36,0.0,0.04,1.0,0.0,0.0,0.58,0.25,0.3,0.3,0.0,0.0</t>
+    <t>8.67,6.88,0.73,1.46,0.5,0.33,20.36,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.23,0.0,0.31,0.08,0.08,0.0,0.0,0.0,0.0,0.0,5.7</t>
   </si>
   <si>
     <t>arg168807</t>
@@ -271,7 +271,7 @@
     <t>William Farquhar had helped more citizen of Singapore than Raffles did. Raffles was just more of the idea man. William Farquhar was more of a founder of Singapore than Raffles.</t>
   </si>
   <si>
-    <t>176,0.0,15.15,0.0,0.07,1.0,0.0,0.0,0.88,0.25,0.3,0.3,0.0,0.0</t>
+    <t>10.0,5.87,0.84,1.46,0.58,0.0,15.15,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.3,0.07,0.13,0.07,0.07,0.0,0.0,0.0,0.0,0.0,6.33</t>
   </si>
   <si>
     <t>arg168791</t>
@@ -280,7 +280,7 @@
     <t>There were pests like centipedes and rats all over the island. These pests hurt some people. The rats also destroyed the food supplies. Tigers were also a threat to the people here. He solved it by giving rewards were given to those people who killed these pests.</t>
   </si>
   <si>
-    <t>263,0.4,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.06,0.13</t>
+    <t>9.4,5.6,1.32,2.43,0.54,0.4,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.02,0.23,0.04,0.04,0.04,0.02,0.0,0.13,0.13,4.13</t>
   </si>
   <si>
     <t>arg168773</t>
@@ -289,7 +289,7 @@
     <t>William Farquhar stayed in Singapore longer than Raffles, so Farquhar had more time to get to know the people more, to earn the trust of the people, to find out the problems that the people were facing and to solve those problems</t>
   </si>
   <si>
-    <t>229,0.0,15.13,0.0,0.05,0.0,0.0,0.0,1.17,0.3,0.4,0.4,0.0,0.0</t>
+    <t>42.0,5.45,1.18,0.49,2.43,0.0,15.13,0.0,0.05,0.0,0,0,0.0,0.0,1.17,0.24,0.05,0.24,0.0,0.0,0.0,0.0,0.0,0.0,0.0,6.79</t>
   </si>
   <si>
     <t>arg168783</t>
@@ -298,7 +298,7 @@
     <t>Farquhar ordered his men to go to Malacca and bring some food back. The traders in Singapore also brought some of the necessities here.</t>
   </si>
   <si>
-    <t>135,0.5,14.32,0.0,0.08,1.0,0.0,0.0,0.88,0.05,0.1,0.1,0.0,0.0</t>
+    <t>12.0,5.63,0.67,0.97,0.69,0.5,14.32,0.0,0.08,1.0,0,0,0.0,0.0,0.88,0.25,0.0,0.25,0.04,0.04,0.04,0.04,0.0,0.0,0.0,1.0</t>
   </si>
   <si>
     <t>arg168825</t>
@@ -307,7 +307,7 @@
     <t>When Farquhar left Singapore, more people were there to send him off than Raffles. This shows that the people recognized Farquhar as their founder, not Raffles</t>
   </si>
   <si>
-    <t>159,0.0,17.2,0.0,0.08,0.5,0.0,0.0,0.58,0.2,0.35,0.35,0.0,0.0</t>
+    <t>13.0,6.12,0.73,0.97,0.75,0.0,17.2,0.0,0.08,0.5,0,0,0.0,0.0,0.58,0.23,0.0,0.19,0.12,0.12,0.08,0.04,0.0,0.0,0.0,9.89</t>
   </si>
   <si>
     <t>arg168770</t>
@@ -316,7 +316,7 @@
     <t>Raffles unjustly removed Farquhar from his position in Singapore and accused him of ' being too close to the local population '. I think that it is unfair that a person who contributed so much to Singapore's development be unjustly sent off like that.</t>
   </si>
   <si>
-    <t>251,0.0,16.81,0.0,0.07,1.0,0.0,0.02,0.58,0.1,0.25,0.25,0.13,0.13</t>
+    <t>22.0,5.7,1.23,0.97,1.27,0.0,16.81,0.0,0.07,1.0,0,0,0.0,0.02,0.58,0.11,0.07,0.18,0.11,0.11,0.09,0.07,0.1,0.13,0.13,4.43</t>
   </si>
   <si>
     <t>arg168820</t>
@@ -325,7 +325,7 @@
     <t>William made the initiative to understand the locals and to communicate with them. He even learnt Malay just so to make conversation easier.</t>
   </si>
   <si>
-    <t>140,0.0,16.91,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>11.5,6.09,0.65,0.97,0.66,0.0,16.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.0,0.17,0.17,0.17,0.04,0.17,0.2,0.0,0.0,0.3</t>
   </si>
 </sst>
 </file>
